--- a/outputs-GTDB-r202/g__Arctic96AD-7.xlsx
+++ b/outputs-GTDB-r202/g__Arctic96AD-7.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -520,11 +520,6 @@
           <t>prediction</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>rejection-f</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -578,11 +573,6 @@
         <v>1</v>
       </c>
       <c r="Q2" t="inlineStr">
-        <is>
-          <t>s__Arctic96AD-7 sp902513935</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
         <is>
           <t>s__Arctic96AD-7 sp902513935</t>
         </is>

--- a/outputs-GTDB-r202/g__Arctic96AD-7.xlsx
+++ b/outputs-GTDB-r202/g__Arctic96AD-7.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -520,6 +520,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -573,6 +578,11 @@
         <v>1</v>
       </c>
       <c r="Q2" t="inlineStr">
+        <is>
+          <t>s__Arctic96AD-7 sp902513935</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
         <is>
           <t>s__Arctic96AD-7 sp902513935</t>
         </is>
